--- a/Food Sales EXCEL DATA.xlsx
+++ b/Food Sales EXCEL DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naika\OneDrive\Desktop\Data Analysis projects\Excel Data analysis projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naika\OneDrive\Desktop\Data Analysis projects\Excel Data analysis projects\Food Sales EXCEL DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AE2C52-9E64-41A2-8516-7BA8BF95B1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9DD063-6467-4F4E-950C-10ADADDF14E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="293">
   <si>
     <t>Region</t>
   </si>
@@ -875,9 +875,6 @@
     <t>ID07594</t>
   </si>
   <si>
-    <t>FOOD SALES DATA ANALYSIS</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -952,7 +949,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Rockwell"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -960,7 +957,7 @@
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
+      <name val="Rockwell"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -968,13 +965,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Rockwell"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Rockwell"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -982,12 +979,12 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Rockwell"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,20 +1003,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1138,43 +1123,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1183,7 +1131,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1269,99 +1217,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Ctx_Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -2242,32 +2107,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2275,12 +2143,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:marker>
@@ -2416,32 +2282,35 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
+                    <a:tint val="98000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="104000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="80000">
+                <a:gs pos="69000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
+                    <a:shade val="84000"/>
                     <a:satMod val="130000"/>
+                    <a:lumMod val="92000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
+                    <a:shade val="76000"/>
+                    <a:satMod val="130000"/>
+                    <a:lumMod val="88000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
+              <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -2449,12 +2318,10 @@
               <a:camera prst="orthographicFront">
                 <a:rot lat="0" lon="0" rev="0"/>
               </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
+              <a:lightRig rig="threePt" dir="tl"/>
             </a:scene3d>
             <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
+              <a:bevelT w="0" h="0"/>
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -4704,32 +4571,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -4737,12 +4607,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:marker>
@@ -4815,32 +4683,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -4848,12 +4719,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:dLbl>
@@ -4929,32 +4798,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -4962,12 +4834,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:dLbl>
@@ -5043,32 +4913,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -5076,12 +4949,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:dLbl>
@@ -5157,32 +5028,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -5190,12 +5064,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:dLbl>
@@ -5301,32 +5173,35 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent1">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
+                      <a:tint val="98000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="104000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="80000">
+                  <a:gs pos="69000">
                     <a:schemeClr val="accent1">
-                      <a:shade val="93000"/>
+                      <a:shade val="84000"/>
                       <a:satMod val="130000"/>
+                      <a:lumMod val="92000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent1">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
+                      <a:shade val="76000"/>
+                      <a:satMod val="130000"/>
+                      <a:lumMod val="88000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                   <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
+                    <a:alpha val="75000"/>
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -5334,12 +5209,10 @@
                 <a:camera prst="orthographicFront">
                   <a:rot lat="0" lon="0" rev="0"/>
                 </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
+                <a:lightRig rig="threePt" dir="tl"/>
               </a:scene3d>
               <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
+                <a:bevelT w="0" h="0"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -5356,32 +5229,35 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent2">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
+                      <a:tint val="98000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="104000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="80000">
+                  <a:gs pos="69000">
                     <a:schemeClr val="accent2">
-                      <a:shade val="93000"/>
+                      <a:shade val="84000"/>
                       <a:satMod val="130000"/>
+                      <a:lumMod val="92000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent2">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
+                      <a:shade val="76000"/>
+                      <a:satMod val="130000"/>
+                      <a:lumMod val="88000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                   <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
+                    <a:alpha val="75000"/>
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -5389,12 +5265,10 @@
                 <a:camera prst="orthographicFront">
                   <a:rot lat="0" lon="0" rev="0"/>
                 </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
+                <a:lightRig rig="threePt" dir="tl"/>
               </a:scene3d>
               <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
+                <a:bevelT w="0" h="0"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -5411,32 +5285,35 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent3">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
+                      <a:tint val="98000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="104000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="80000">
+                  <a:gs pos="69000">
                     <a:schemeClr val="accent3">
-                      <a:shade val="93000"/>
+                      <a:shade val="84000"/>
                       <a:satMod val="130000"/>
+                      <a:lumMod val="92000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent3">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
+                      <a:shade val="76000"/>
+                      <a:satMod val="130000"/>
+                      <a:lumMod val="88000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                   <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
+                    <a:alpha val="75000"/>
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -5444,12 +5321,10 @@
                 <a:camera prst="orthographicFront">
                   <a:rot lat="0" lon="0" rev="0"/>
                 </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
+                <a:lightRig rig="threePt" dir="tl"/>
               </a:scene3d>
               <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
+                <a:bevelT w="0" h="0"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -5466,32 +5341,35 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
+                      <a:tint val="98000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="104000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="80000">
+                  <a:gs pos="69000">
                     <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
+                      <a:shade val="84000"/>
                       <a:satMod val="130000"/>
+                      <a:lumMod val="92000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
+                      <a:shade val="76000"/>
+                      <a:satMod val="130000"/>
+                      <a:lumMod val="88000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                   <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
+                    <a:alpha val="75000"/>
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -5499,12 +5377,10 @@
                 <a:camera prst="orthographicFront">
                   <a:rot lat="0" lon="0" rev="0"/>
                 </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
+                <a:lightRig rig="threePt" dir="tl"/>
               </a:scene3d>
               <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
+                <a:bevelT w="0" h="0"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -6147,32 +6023,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -6180,12 +6059,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:marker>
@@ -6241,8 +6118,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19417891513560806"/>
-          <c:y val="0.13467592592592595"/>
+          <c:x val="0.19177781914161807"/>
+          <c:y val="0.1346757785006634"/>
           <c:w val="0.76382108486439193"/>
           <c:h val="0.75792468649752109"/>
         </c:manualLayout>
@@ -6270,32 +6147,35 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
+                    <a:tint val="98000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="104000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="80000">
+                <a:gs pos="69000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
+                    <a:shade val="84000"/>
                     <a:satMod val="130000"/>
+                    <a:lumMod val="92000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
+                    <a:shade val="76000"/>
+                    <a:satMod val="130000"/>
+                    <a:lumMod val="88000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
+              <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -6303,12 +6183,10 @@
               <a:camera prst="orthographicFront">
                 <a:rot lat="0" lon="0" rev="0"/>
               </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
+              <a:lightRig rig="threePt" dir="tl"/>
             </a:scene3d>
             <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
+              <a:bevelT w="0" h="0"/>
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -6761,32 +6639,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -6794,12 +6675,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:marker>
@@ -6990,32 +6869,35 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
+                    <a:tint val="98000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="104000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="80000">
+                <a:gs pos="69000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
+                    <a:shade val="84000"/>
                     <a:satMod val="130000"/>
+                    <a:lumMod val="92000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
+                    <a:shade val="76000"/>
+                    <a:satMod val="130000"/>
+                    <a:lumMod val="88000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
+              <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -7023,12 +6905,10 @@
               <a:camera prst="orthographicFront">
                 <a:rot lat="0" lon="0" rev="0"/>
               </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
+              <a:lightRig rig="threePt" dir="tl"/>
             </a:scene3d>
             <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
+              <a:bevelT w="0" h="0"/>
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -7607,32 +7487,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -7640,12 +7523,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:marker>
@@ -7718,32 +7599,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -7751,12 +7635,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:dLbl>
@@ -7832,32 +7714,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -7865,12 +7750,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:dLbl>
@@ -7946,32 +7829,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -7979,12 +7865,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:dLbl>
@@ -8060,32 +7944,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -8093,12 +7980,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:dLbl>
@@ -8194,32 +8079,35 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent1">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
+                      <a:tint val="98000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="104000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="80000">
+                  <a:gs pos="69000">
                     <a:schemeClr val="accent1">
-                      <a:shade val="93000"/>
+                      <a:shade val="84000"/>
                       <a:satMod val="130000"/>
+                      <a:lumMod val="92000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent1">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
+                      <a:shade val="76000"/>
+                      <a:satMod val="130000"/>
+                      <a:lumMod val="88000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                   <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
+                    <a:alpha val="75000"/>
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -8227,12 +8115,10 @@
                 <a:camera prst="orthographicFront">
                   <a:rot lat="0" lon="0" rev="0"/>
                 </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
+                <a:lightRig rig="threePt" dir="tl"/>
               </a:scene3d>
               <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
+                <a:bevelT w="0" h="0"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -8249,32 +8135,35 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent2">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
+                      <a:tint val="98000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="104000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="80000">
+                  <a:gs pos="69000">
                     <a:schemeClr val="accent2">
-                      <a:shade val="93000"/>
+                      <a:shade val="84000"/>
                       <a:satMod val="130000"/>
+                      <a:lumMod val="92000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent2">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
+                      <a:shade val="76000"/>
+                      <a:satMod val="130000"/>
+                      <a:lumMod val="88000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                   <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
+                    <a:alpha val="75000"/>
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -8282,12 +8171,10 @@
                 <a:camera prst="orthographicFront">
                   <a:rot lat="0" lon="0" rev="0"/>
                 </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
+                <a:lightRig rig="threePt" dir="tl"/>
               </a:scene3d>
               <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
+                <a:bevelT w="0" h="0"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -8304,32 +8191,35 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent3">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
+                      <a:tint val="98000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="104000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="80000">
+                  <a:gs pos="69000">
                     <a:schemeClr val="accent3">
-                      <a:shade val="93000"/>
+                      <a:shade val="84000"/>
                       <a:satMod val="130000"/>
+                      <a:lumMod val="92000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent3">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
+                      <a:shade val="76000"/>
+                      <a:satMod val="130000"/>
+                      <a:lumMod val="88000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                   <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
+                    <a:alpha val="75000"/>
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -8337,12 +8227,10 @@
                 <a:camera prst="orthographicFront">
                   <a:rot lat="0" lon="0" rev="0"/>
                 </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
+                <a:lightRig rig="threePt" dir="tl"/>
               </a:scene3d>
               <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
+                <a:bevelT w="0" h="0"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -8359,32 +8247,35 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
+                      <a:tint val="98000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="104000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="80000">
+                  <a:gs pos="69000">
                     <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
+                      <a:shade val="84000"/>
                       <a:satMod val="130000"/>
+                      <a:lumMod val="92000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
+                      <a:shade val="76000"/>
+                      <a:satMod val="130000"/>
+                      <a:lumMod val="88000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                   <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
+                    <a:alpha val="75000"/>
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
@@ -8392,12 +8283,10 @@
                 <a:camera prst="orthographicFront">
                   <a:rot lat="0" lon="0" rev="0"/>
                 </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
+                <a:lightRig rig="threePt" dir="tl"/>
               </a:scene3d>
               <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
+                <a:bevelT w="0" h="0"/>
               </a:sp3d>
             </c:spPr>
             <c:extLst>
@@ -8842,32 +8731,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -8875,12 +8767,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:marker>
@@ -9100,32 +8990,35 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
+                    <a:tint val="98000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="104000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="80000">
+                <a:gs pos="69000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
+                    <a:shade val="84000"/>
                     <a:satMod val="130000"/>
+                    <a:lumMod val="92000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
+                    <a:shade val="76000"/>
+                    <a:satMod val="130000"/>
+                    <a:lumMod val="88000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
+              <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -9133,12 +9026,10 @@
               <a:camera prst="orthographicFront">
                 <a:rot lat="0" lon="0" rev="0"/>
               </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
+              <a:lightRig rig="threePt" dir="tl"/>
             </a:scene3d>
             <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
+              <a:bevelT w="0" h="0"/>
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -9691,32 +9582,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -9724,12 +9618,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:marker>
@@ -9865,32 +9757,35 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
+                    <a:tint val="98000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="104000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="80000">
+                <a:gs pos="69000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
+                    <a:shade val="84000"/>
                     <a:satMod val="130000"/>
+                    <a:lumMod val="92000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
+                    <a:shade val="76000"/>
+                    <a:satMod val="130000"/>
+                    <a:lumMod val="88000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
+              <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -9898,12 +9793,10 @@
               <a:camera prst="orthographicFront">
                 <a:rot lat="0" lon="0" rev="0"/>
               </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
+              <a:lightRig rig="threePt" dir="tl"/>
             </a:scene3d>
             <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
+              <a:bevelT w="0" h="0"/>
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -11090,32 +10983,35 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
+                  <a:tint val="98000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="104000"/>
                 </a:schemeClr>
               </a:gs>
-              <a:gs pos="80000">
+              <a:gs pos="69000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
+                  <a:shade val="84000"/>
                   <a:satMod val="130000"/>
+                  <a:lumMod val="92000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
+                  <a:shade val="76000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="88000"/>
                 </a:schemeClr>
               </a:gs>
             </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
+            <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -11123,12 +11019,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </c:spPr>
         <c:marker>
@@ -11213,32 +11107,35 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
+                    <a:tint val="98000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="104000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="80000">
+                <a:gs pos="69000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
+                    <a:shade val="84000"/>
                     <a:satMod val="130000"/>
+                    <a:lumMod val="92000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
+                    <a:shade val="76000"/>
+                    <a:satMod val="130000"/>
+                    <a:lumMod val="88000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
+              <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
@@ -11246,12 +11143,10 @@
               <a:camera prst="orthographicFront">
                 <a:rot lat="0" lon="0" rev="0"/>
               </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
+              <a:lightRig rig="threePt" dir="tl"/>
             </a:scene3d>
             <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
+              <a:bevelT w="0" h="0"/>
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -18107,16 +18002,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2898</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>149089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>478491</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511621</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18145,16 +18040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>644898</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156223</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>132036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180414</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>521805</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18183,16 +18078,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>328891</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>147359</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>138390</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>528917</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>147358</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>338416</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18221,16 +18116,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>633133</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>444874</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133764</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18259,16 +18154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>249331</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>191353</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>108916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>639856</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581878</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18297,16 +18192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>549087</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>389284</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18335,19 +18230,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>458317</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>130547</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>309230</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>549087</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Month">
@@ -18370,7 +18265,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18380,8 +18275,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3192552" y="421900"/>
-              <a:ext cx="3508564" cy="990041"/>
+              <a:off x="309230" y="3193042"/>
+              <a:ext cx="1380422" cy="2860303"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18413,19 +18308,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>54910</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311669</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>141752</xdr:rowOff>
+      <xdr:rowOff>49697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:rowOff>140805</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Year">
@@ -18448,7 +18343,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18458,8 +18353,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6890498" y="433105"/>
-              <a:ext cx="1592355" cy="956425"/>
+              <a:off x="311669" y="344972"/>
+              <a:ext cx="1402831" cy="1091233"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18491,19 +18386,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>491938</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152963</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301438</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Quarter">
@@ -18526,7 +18421,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18536,8 +18431,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8694644" y="444316"/>
-              <a:ext cx="3452533" cy="934008"/>
+              <a:off x="301438" y="1648387"/>
+              <a:ext cx="1413062" cy="1280344"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18565,6 +18460,220 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2176A035-962B-795E-AC52-42A75ACFC402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4969565" y="149086"/>
+          <a:ext cx="6104283" cy="695740"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>621763</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52990</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5001561" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069F60D0-5C1C-EC6E-4523-31031663993B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6717763" y="52990"/>
+          <a:ext cx="5001561" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Food Sales</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Analysis</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165651</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107673</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Graphic 13" descr="Bar graph with upward trend">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B607C96B-ABE6-0171-A6F0-E76020CE3050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499651" y="149087"/>
+          <a:ext cx="704022" cy="704022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -23203,10 +23312,10 @@
     <dataField name="Average of UnitPrice" fld="10" subtotal="average" baseField="2" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="29">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -23457,13 +23566,13 @@
     <dataField name="Average of Qty" fld="9" subtotal="average" baseField="3" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="27">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -23882,35 +23991,35 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Month" xr10:uid="{7410DC47-BAA0-4EBC-B51F-2EAA8D19FCDC}" cache="Slicer_Month" caption="Month" columnCount="6" rowHeight="257175"/>
+  <slicer name="Month" xr10:uid="{7410DC47-BAA0-4EBC-B51F-2EAA8D19FCDC}" cache="Slicer_Month" caption="Month" rowHeight="257175"/>
   <slicer name="Year" xr10:uid="{AE18DD4D-9E5D-47F5-91FE-C987472058E7}" cache="Slicer_Year" caption="Year" rowHeight="257175"/>
-  <slicer name="Quarter" xr10:uid="{D813A959-7A6C-4E5B-8A48-9A7C85CA07AA}" cache="Slicer_Quarter" caption="Quarter" columnCount="4" rowHeight="257175"/>
+  <slicer name="Quarter" xr10:uid="{D813A959-7A6C-4E5B-8A48-9A7C85CA07AA}" cache="Slicer_Quarter" caption="Quarter" rowHeight="257175"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE6C4DCE-EAFA-4F17-987B-051C6243AD37}" name="Sales_Data" displayName="Sales_Data" ref="A1:L245" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE6C4DCE-EAFA-4F17-987B-051C6243AD37}" name="Sales_Data" displayName="Sales_Data" ref="A1:L245" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:L245" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L245">
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="8" xr3:uid="{FFCC9695-AA71-400D-A27C-87B7E761F6B0}" name="ID" dataDxfId="41"/>
-    <tableColumn id="1" xr3:uid="{E1990182-224E-4205-8756-42D045CCF3B8}" name="Date" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{0304CB97-2801-4955-9598-26F04774D549}" name="Year" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{7C9CC8B7-6B6A-48C4-A4B1-EBCC38480C18}" name="Month" dataDxfId="38">
+    <tableColumn id="8" xr3:uid="{FFCC9695-AA71-400D-A27C-87B7E761F6B0}" name="ID" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{E1990182-224E-4205-8756-42D045CCF3B8}" name="Date" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{0304CB97-2801-4955-9598-26F04774D549}" name="Year" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{7C9CC8B7-6B6A-48C4-A4B1-EBCC38480C18}" name="Month" dataDxfId="13">
       <calculatedColumnFormula>TEXT(Sales_Data[[#This Row],[Date]], "MMM")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{8A58AE22-BCDF-4055-8CCF-7B1EF4C4F358}" name="Quarter" dataDxfId="37">
+    <tableColumn id="12" xr3:uid="{8A58AE22-BCDF-4055-8CCF-7B1EF4C4F358}" name="Quarter" dataDxfId="12">
       <calculatedColumnFormula>TEXT(B2, "YYYY") &amp; "-Q" &amp; ROUNDUP(MONTH(B2)/3, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{63975955-9EE1-446F-8FEC-6D63AA0AA89C}" name="Region" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2B4979E6-3FD7-427C-8DC5-DE3E43451EA3}" name="City" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{B8A13F2B-54E8-4EAD-8F69-EA9AC430BAA3}" name="Category" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{792821BF-945B-4894-A80E-69C4767318F3}" name="Product" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{7054EEA3-CD63-450E-9F27-E30971B20096}" name="Qty" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{A19388B3-1EE4-450C-8145-146B174F59FD}" name="UnitPrice" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{9065C0FD-4252-47E8-9EB5-9AF5DCC90C17}" name="TotalPrice" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{63975955-9EE1-446F-8FEC-6D63AA0AA89C}" name="Region" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2B4979E6-3FD7-427C-8DC5-DE3E43451EA3}" name="City" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B8A13F2B-54E8-4EAD-8F69-EA9AC430BAA3}" name="Category" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{792821BF-945B-4894-A80E-69C4767318F3}" name="Product" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{7054EEA3-CD63-450E-9F27-E30971B20096}" name="Qty" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A19388B3-1EE4-450C-8145-146B174F59FD}" name="UnitPrice" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{9065C0FD-4252-47E8-9EB5-9AF5DCC90C17}" name="TotalPrice" dataDxfId="5">
       <calculatedColumnFormula>Sales_Data[[#This Row],[Qty]]*Sales_Data[[#This Row],[UnitPrice]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -23919,9 +24028,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Atlas">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Atlas">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23929,39 +24038,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="454545"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E0E0E0"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="F81B02"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="FC7715"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="AFBF41"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="50C49F"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="3B95C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="B560D4"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="FC5A1A"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="B49E74"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Atlas">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -23970,7 +24079,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -23996,7 +24105,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Rockwell" panose="02060603020205020403"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -24005,7 +24114,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -24031,7 +24140,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Atlas">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -24040,55 +24149,63 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="62000"/>
+                <a:alpha val="60000"/>
+                <a:satMod val="109000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="78000"/>
+                <a:alpha val="92000"/>
+                <a:satMod val="109000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="104000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="69000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:shade val="84000"/>
                 <a:satMod val="130000"/>
+                <a:lumMod val="92000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="76000"/>
+                <a:satMod val="130000"/>
+                <a:lumMod val="88000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:shade val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="90000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -24099,37 +24216,19 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -24137,12 +24236,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -24150,49 +24247,28 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="10000">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:lumMod val="116000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:tint val="98000"/>
+                <a:shade val="86000"/>
+                <a:satMod val="90000"/>
+                <a:lumMod val="88000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect l="50000" t="15000" r="50000" b="169000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -24200,1033 +24276,53 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF808CA4-6D0B-4188-AD7F-154C9C100322}">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="31"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
+    <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -25252,62 +24348,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -25327,17 +24423,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="8.109375" style="25" customWidth="1"/>
+    <col min="2" max="5" width="16.77734375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="28" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="29" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -25348,13 +24443,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>0</v>
@@ -35524,23 +34619,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4">
         <v>21524.36</v>
       </c>
     </row>
@@ -35548,7 +34643,7 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5">
         <v>13265.53</v>
       </c>
     </row>
@@ -35556,7 +34651,7 @@
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6">
         <v>8258.8300000000017</v>
       </c>
     </row>
@@ -35564,7 +34659,7 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7">
         <v>11801.22</v>
       </c>
     </row>
@@ -35572,7 +34667,7 @@
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8">
         <v>7687.3199999999979</v>
       </c>
     </row>
@@ -35580,7 +34675,7 @@
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9">
         <v>4113.9000000000015</v>
       </c>
     </row>
@@ -35600,16 +34695,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -35660,23 +34755,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4">
         <v>7410.9900000000007</v>
       </c>
     </row>
@@ -35684,7 +34779,7 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5">
         <v>7310.1599999999989</v>
       </c>
     </row>
@@ -35692,7 +34787,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6">
         <v>5330.0999999999995</v>
       </c>
     </row>
@@ -35700,7 +34795,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7">
         <v>4572.1500000000005</v>
       </c>
     </row>
@@ -35708,7 +34803,7 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8">
         <v>3339.9299999999994</v>
       </c>
     </row>
@@ -35716,7 +34811,7 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9">
         <v>2945.25</v>
       </c>
     </row>
@@ -35724,7 +34819,7 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10">
         <v>1651.7700000000002</v>
       </c>
     </row>
@@ -35732,7 +34827,7 @@
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11">
         <v>585.9</v>
       </c>
     </row>
@@ -35740,15 +34835,15 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12">
         <v>179.32999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="31">
+        <v>273</v>
+      </c>
+      <c r="B13">
         <v>33325.58</v>
       </c>
     </row>
@@ -35768,16 +34863,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -35830,7 +34925,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="2">
         <v>2.2008196721311459</v>
@@ -35852,17 +34947,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -35899,7 +34994,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" s="2">
         <v>63.286885245901637</v>
@@ -35921,23 +35016,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4">
         <v>4187</v>
       </c>
     </row>
@@ -35945,7 +35040,7 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5">
         <v>2574</v>
       </c>
     </row>
@@ -35953,7 +35048,7 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6">
         <v>2445</v>
       </c>
     </row>
@@ -35961,7 +35056,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7">
         <v>2445</v>
       </c>
     </row>
@@ -35969,7 +35064,7 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8">
         <v>1575</v>
       </c>
     </row>
